--- a/web/excel/finiquito/Finiquito.xlsx
+++ b/web/excel/finiquito/Finiquito.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-admon\web\excel\finiquito\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GestorTécnicoSistema\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E1F3CF-2C1D-414A-B807-55A007BBF0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38475DEF-CA71-41F6-819F-265D1CA0DC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2B98C909-3E09-452C-B96B-E71059973629}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Finiquito" sheetId="1" r:id="rId1"/>
+    <sheet name="Finiquito Lidia" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Finiquito!$A$1:$I$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Finiquito Lidia'!$A$1:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -40,51 +37,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Año 2020</t>
-  </si>
-  <si>
-    <t>Año 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total </t>
-  </si>
-  <si>
-    <t>TERCEAVO</t>
-  </si>
-  <si>
-    <t>CATORCEAVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CESANTIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL </t>
-  </si>
-  <si>
-    <t>NOMBRE/FIRMA</t>
-  </si>
-  <si>
-    <t>NUMERO DE IDENTIDAD</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Donante :</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Fondo Mundial </t>
     </r>
@@ -94,35 +60,58 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Proyecto: </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Moviendo las respuestas al VIH y la tuberculosis hacia el 90-90-90 y la sostenibilidad con enfoque en poblaciones clave y vulnerables en el Atlantico insular</t>
     </r>
   </si>
   <si>
+    <t>Año 2019</t>
+  </si>
+  <si>
+    <t>Año 2020</t>
+  </si>
+  <si>
+    <t>Año 2021</t>
+  </si>
+  <si>
+    <t>Año 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
     <t xml:space="preserve">Fecha de Ingreso </t>
   </si>
   <si>
     <t xml:space="preserve">Fecha de Finalizacion </t>
   </si>
   <si>
-    <t>Año 2022</t>
-  </si>
-  <si>
-    <t>Año 2019</t>
+    <t>TERCEAVO</t>
+  </si>
+  <si>
+    <t>CATORCEAVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CESANTIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL </t>
+  </si>
+  <si>
+    <t>NOMBRE/FIRMA</t>
+  </si>
+  <si>
+    <t>NUMERO DE IDENTIDAD</t>
   </si>
 </sst>
 </file>
@@ -132,35 +121,27 @@
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -172,12 +153,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD9E2F3"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -187,16 +168,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -215,30 +205,30 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -252,25 +242,20 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>73505</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="7143750" cy="953266"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBAD79AF-487D-7415-8777-0830A97F7488}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -279,21 +264,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="47625"/>
-          <a:ext cx="5924550" cy="787880"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7143750" cy="953266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -301,12 +280,12 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -316,44 +295,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -381,31 +360,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -433,23 +395,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,235 +406,257 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A916EE2-E387-4FFD-BCB6-43307E74F68A}">
-  <dimension ref="A6:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A5:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="5" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>12</v>
+      <c r="C9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
         <f>SUM(B10:E10)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14">
-        <f t="shared" ref="F11:F12" si="0">SUM(B11:E11)</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <f>SUM(B11:E11)</f>
         <v>0</v>
       </c>
       <c r="G11" s="4"/>
@@ -697,14 +664,14 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14">
-        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <f>SUM(B12:E12)</f>
         <v>0</v>
       </c>
       <c r="G12" s="4"/>
@@ -712,25 +679,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
         <f>SUM(B10:B12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="9">
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="9">
         <f>SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="9">
         <f>SUM(E10:E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="9">
         <f>SUM(F10:F12)</f>
         <v>0</v>
       </c>
@@ -739,31 +706,27 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="13"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
@@ -772,16 +735,15 @@
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
-      <c r="D18" s="11"/>
       <c r="G18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="1">
     <mergeCell ref="A7:H7"/>
-    <mergeCell ref="E15:F15"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="94" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>